--- a/biology/Médecine/Pierre_Lévy-Soussan/Pierre_Lévy-Soussan.xlsx
+++ b/biology/Médecine/Pierre_Lévy-Soussan/Pierre_Lévy-Soussan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9vy-Soussan</t>
+          <t>Pierre_Lévy-Soussan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Lévy-Soussan est un pédopsychiatre et un psychanalyste[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Lévy-Soussan est un pédopsychiatre et un psychanalyste.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9vy-Soussan</t>
+          <t>Pierre_Lévy-Soussan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est médecin, directeur de la consultation filiations du CMP pour l’enfant et la famille depuis 1999 à Paris (association CEREP -Phymentin).
 Il a été vice-président du Conseil national d’accès aux origines personnelles (CNAOP) (2002-2004) et membre du Conseil d’orientation de l’agence de biomédecine depuis 2011.
-Il est chargé de cours à l’Université Paris Diderot[1].
+Il est chargé de cours à l’Université Paris Diderot.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9vy-Soussan</t>
+          <t>Pierre_Lévy-Soussan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au moment des débats sur le mariage pour tous, Lévy-Soussan s'est montré hostile au mariage et à l'adoption pour tous[2] et a affirmé que les enfants auraient besoin de la différence des sexes (entre père et mère) pour se structurer[3].
-Lévy-Soussan s'est opposé à l'ouverture de l'assistance médicale à la procréation (AMP) aux femmes célibataires et aux couples de femmes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment des débats sur le mariage pour tous, Lévy-Soussan s'est montré hostile au mariage et à l'adoption pour tous et a affirmé que les enfants auraient besoin de la différence des sexes (entre père et mère) pour se structurer.
+Lévy-Soussan s'est opposé à l'ouverture de l'assistance médicale à la procréation (AMP) aux femmes célibataires et aux couples de femmes.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9vy-Soussan</t>
+          <t>Pierre_Lévy-Soussan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,29 +592,241 @@
           <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste ci-dessous contient des publications de P Lévy-Soussan en les distinguant selon leur type et leur qualité.
-Une liste de ses publications en français est également disponible sur le site internet Cairn.info[5].
-Livres
-Psychiatrie, collection Med Line, Troisième édition, 2000
+Une liste de ses publications en français est également disponible sur le site internet Cairn.info.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Lévy-Soussan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_L%C3%A9vy-Soussan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychiatrie, collection Med Line, Troisième édition, 2000
 Éloge du Secret, éditions Fayard, 2006.
 Destins de l’adoption, Fayard, 2010.
-Chapitres de livre
-- Lévy-Soussan P et Marinopoulos. 2007. Comment se feront les bébés de demain. La sexualité en question, p. 377–382, Études Freudiennes.
-- Lévy-Soussan P. 2007. Construction de l’identité et filiation adoptive, quand le fil ne noue plus les fils. Prisme, numéro 46, pages 248-257[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Lévy-Soussan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_L%C3%A9vy-Soussan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chapitres de livre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Lévy-Soussan P et Marinopoulos. 2007. Comment se feront les bébés de demain. La sexualité en question, p. 377–382, Études Freudiennes.
+- Lévy-Soussan P. 2007. Construction de l’identité et filiation adoptive, quand le fil ne noue plus les fils. Prisme, numéro 46, pages 248-257.
 - Lévy-Soussan P. 2013. Adoption et construction filiative : réalité, fiction, inconscient. In L'adoption, un roman familial. Sous la direction de Christian Robineau. Editeur : Erès.
-Articles dans des revues avec comité de lecture
-- Lévy-Soussan P. Eloge des secrets : illusion, soi et transformation. Enfance et Psy, Dossier « Le secret », no 39, p. 119–128.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Lévy-Soussan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_L%C3%A9vy-Soussan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Articles dans des revues avec comité de lecture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Lévy-Soussan P. Eloge des secrets : illusion, soi et transformation. Enfance et Psy, Dossier « Le secret », no 39, p. 119–128.
 - Lévy-Soussan P. 2006. La filiation à l'épreuve de l'adolescence. Adolescence, pages 101-110.
-Article court dans une revue sans comité de lecture
-- Lévy-Soussan P. 2011. La filiation à l’épreuve des lois. Dossier Droits et familles aujourd’hui. Le Journal des Psychologues, numéro 292, pages 26-29.
-Commentaire court
-- A psychoanalytic view about Clinical challenges of adoption, views from Montreal and Tel Aviv, Infant Mental Health Journal, p. 707–709. À propos de l’article de Martin St-André, Miri Keren, Infant Mental Health Journal, Volume 32, Issue 6, p. 694–706, novembre/décembre 2011.
-Autres publications
-- Lévy-Soussan P. Le vécu de l’abandon et la construction filiative du côté de l’enfant. Une approche psychanalytique. Informations Sociales, numéro 146, pages 94-102.
-- L'article suivant est archivé et remplacé par une version plus récente, dont la liste d'auteurs ne contient pas Lévy-Soussan : Lévy-Soussan P et Marinopoulos S. 2007. Abandon et adoption : enjeux psychiques de la filiation dans une perspective historique et clinique, Psychiatrie/Pédopsychiatrie, 37-210-A-40[7].
-- La publication suivante est déclarée par Lévy-Soussan dans son CV[8], mais n'est pas trouvable sur internet : Jeux en ligne et addiction, attention aux fantasmes, Revue Parlementaire, p. 43, juillet 2009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Lévy-Soussan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_L%C3%A9vy-Soussan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Article court dans une revue sans comité de lecture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Lévy-Soussan P. 2011. La filiation à l’épreuve des lois. Dossier Droits et familles aujourd’hui. Le Journal des Psychologues, numéro 292, pages 26-29.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Lévy-Soussan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_L%C3%A9vy-Soussan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Commentaire court</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- A psychoanalytic view about Clinical challenges of adoption, views from Montreal and Tel Aviv, Infant Mental Health Journal, p. 707–709. À propos de l’article de Martin St-André, Miri Keren, Infant Mental Health Journal, Volume 32, Issue 6, p. 694–706, novembre/décembre 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Lévy-Soussan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_L%C3%A9vy-Soussan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications : Livres, chapitres de livres, articles et autres publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Lévy-Soussan P. Le vécu de l’abandon et la construction filiative du côté de l’enfant. Une approche psychanalytique. Informations Sociales, numéro 146, pages 94-102.
+- L'article suivant est archivé et remplacé par une version plus récente, dont la liste d'auteurs ne contient pas Lévy-Soussan : Lévy-Soussan P et Marinopoulos S. 2007. Abandon et adoption : enjeux psychiques de la filiation dans une perspective historique et clinique, Psychiatrie/Pédopsychiatrie, 37-210-A-40.
+- La publication suivante est déclarée par Lévy-Soussan dans son CV, mais n'est pas trouvable sur internet : Jeux en ligne et addiction, attention aux fantasmes, Revue Parlementaire, p. 43, juillet 2009.
 </t>
         </is>
       </c>
